--- a/content/plataformes/dadesref/entitats/Subdireccions_Generals.xlsx
+++ b/content/plataformes/dadesref/entitats/Subdireccions_Generals.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjpina\portal\content\plataformes\dadesref\entitats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat.sharepoint.com/sites/GovernanaArquitecturaCloudiSI-60_ARQDades/Documents compartits/60_ARQ Dades/20 Cataleg/60 Modelatge/117.Subdireccions_generals/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="79" documentId="11_87B73C39CCB62189BBF663B89FC551F83C0A36D0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5140ABA9-83FC-40A9-AF59-51AC8E711B2B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12000"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full2" sheetId="3" r:id="rId1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="401">
   <si>
     <t>id_Subdirecció</t>
   </si>
@@ -1117,6 +1118,9 @@
     <t>Subdirecció General d'Auditoria i Inspecció Internes</t>
   </si>
   <si>
+    <t>Subdirecció General de Gestió Econòmica, Contractació i Subvencions</t>
+  </si>
+  <si>
     <t>Subdirecció General d'Immobles i Serveis Generals</t>
   </si>
   <si>
@@ -1141,7 +1145,7 @@
     <t>Subdirecció General de Gestió i Control d'Ajuts Directes</t>
   </si>
   <si>
-    <t>Secretaria d'Agenda Rural</t>
+    <t>Direcció General de Desenvolupament Rural</t>
   </si>
   <si>
     <t>Subdirecció General de Planificació Rural</t>
@@ -1150,15 +1154,15 @@
     <t>Subdirecció General d'Infraestructures Rurals</t>
   </si>
   <si>
+    <t>Direcció General de Regadius i Espais Agraris</t>
+  </si>
+  <si>
     <t>Subdirecció General de Boscos</t>
   </si>
   <si>
     <t>Direcció General de Boscos i Gestió del Medi</t>
   </si>
   <si>
-    <t>Subdirecció General de Prevenció d'Incendis Forestals</t>
-  </si>
-  <si>
     <t>Subdirecció General de Fauna Cinegètica, Caça i Pesca Continental</t>
   </si>
   <si>
@@ -1168,7 +1172,7 @@
     <t>Direcció General de Política Marítima i Pesca Sostenible</t>
   </si>
   <si>
-    <t>Subdirecció General de Política Marítima, Control i Formació</t>
+    <t>Subdirecció General de Política Marítima</t>
   </si>
   <si>
     <t>Oficina de Coordinació de Serveis Comuns</t>
@@ -1240,8 +1244,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1407,6 +1411,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF201F1E"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1801,7 +1811,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="38" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1950,17 +1960,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Taula2" displayName="Taula2" ref="A1:F388" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <sortState ref="A2:F386">
-    <sortCondition sortBy="cellColor" ref="A1:A386" dxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Taula2" displayName="Taula2" ref="A1:F387" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:F387" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F385">
+    <sortCondition sortBy="cellColor" ref="A1:A385" dxfId="6"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="id_Subdirecció" dataDxfId="5"/>
-    <tableColumn id="2" name="Nom_Subdirecció" dataDxfId="4"/>
-    <tableColumn id="3" name="id_Jeràrquic" dataDxfId="3"/>
-    <tableColumn id="4" name="Nom_Jeràrquic" dataDxfId="2"/>
-    <tableColumn id="5" name="id_Departament" dataDxfId="1"/>
-    <tableColumn id="6" name="Nom_Departament" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_Subdirecció" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom_Subdirecció" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="id_Jeràrquic" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Nom_Jeràrquic" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="id_Departament" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nom_Departament" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2228,14 +2239,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J388"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A320" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B339" sqref="B339"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94" style="7" bestFit="1" customWidth="1"/>
@@ -2249,7 +2260,7 @@
     <col min="12" max="16384" width="8.7109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2269,7 +2280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="7">
         <v>22638</v>
       </c>
@@ -2289,7 +2300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="7">
         <v>7630</v>
       </c>
@@ -2309,7 +2320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="7">
         <v>13339</v>
       </c>
@@ -2329,7 +2340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="7">
         <v>14108</v>
       </c>
@@ -2349,7 +2360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="7">
         <v>14109</v>
       </c>
@@ -2369,7 +2380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="7">
         <v>51</v>
       </c>
@@ -2389,7 +2400,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="7">
         <v>18212</v>
       </c>
@@ -2409,7 +2420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="7">
         <v>19791</v>
       </c>
@@ -2429,7 +2440,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="7">
         <v>11008</v>
       </c>
@@ -2449,7 +2460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="7">
         <v>12658</v>
       </c>
@@ -2469,7 +2480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="7">
         <v>670</v>
       </c>
@@ -2489,7 +2500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="7">
         <v>17457</v>
       </c>
@@ -2511,7 +2522,7 @@
       <c r="G13" s="8"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="7">
         <v>16593</v>
       </c>
@@ -2533,7 +2544,7 @@
       <c r="G14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="7">
         <v>16592</v>
       </c>
@@ -2555,7 +2566,7 @@
       <c r="G15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="7">
         <v>649</v>
       </c>
@@ -2577,7 +2588,7 @@
       <c r="G16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="7">
         <v>23344</v>
       </c>
@@ -2599,7 +2610,7 @@
       <c r="G17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="7">
         <v>632</v>
       </c>
@@ -2621,7 +2632,7 @@
       <c r="G18" s="8"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="7">
         <v>23345</v>
       </c>
@@ -2643,7 +2654,7 @@
       <c r="G19" s="8"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="7">
         <v>638</v>
       </c>
@@ -2665,7 +2676,7 @@
       <c r="G20" s="8"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="7">
         <v>16452</v>
       </c>
@@ -2687,7 +2698,7 @@
       <c r="G21" s="8"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="7">
         <v>82</v>
       </c>
@@ -2709,7 +2720,7 @@
       <c r="G22" s="8"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="7">
         <v>11154</v>
       </c>
@@ -2731,7 +2742,7 @@
       <c r="G23" s="8"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="7">
         <v>11159</v>
       </c>
@@ -2753,7 +2764,7 @@
       <c r="G24" s="8"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="7">
         <v>11023</v>
       </c>
@@ -2775,7 +2786,7 @@
       <c r="G25" s="8"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="7">
         <v>11024</v>
       </c>
@@ -2797,7 +2808,7 @@
       <c r="G26" s="8"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="7">
         <v>11025</v>
       </c>
@@ -2819,7 +2830,7 @@
       <c r="G27" s="8"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="7">
         <v>11026</v>
       </c>
@@ -2841,7 +2852,7 @@
       <c r="G28" s="8"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="7">
         <v>11903</v>
       </c>
@@ -2863,7 +2874,7 @@
       <c r="G29" s="8"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="7">
         <v>18403</v>
       </c>
@@ -2885,7 +2896,7 @@
       <c r="G30" s="8"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="7">
         <v>18873</v>
       </c>
@@ -2907,7 +2918,7 @@
       <c r="G31" s="8"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="7">
         <v>22049</v>
       </c>
@@ -2929,7 +2940,7 @@
       <c r="G32" s="8"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="7">
         <v>22052</v>
       </c>
@@ -2951,7 +2962,7 @@
       <c r="G33" s="8"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="7">
         <v>18219</v>
       </c>
@@ -2973,7 +2984,7 @@
       <c r="G34" s="8"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="7">
         <v>22053</v>
       </c>
@@ -2995,7 +3006,7 @@
       <c r="G35" s="8"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="7">
         <v>12721</v>
       </c>
@@ -3017,7 +3028,7 @@
       <c r="G36" s="8"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" s="7">
         <v>22054</v>
       </c>
@@ -3039,7 +3050,7 @@
       <c r="G37" s="8"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" s="7">
         <v>22413</v>
       </c>
@@ -3061,7 +3072,7 @@
       <c r="G38" s="8"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" s="7">
         <v>18224</v>
       </c>
@@ -3083,7 +3094,7 @@
       <c r="G39" s="8"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="7">
         <v>589</v>
       </c>
@@ -3105,7 +3116,7 @@
       <c r="G40" s="8"/>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" s="7">
         <v>19105</v>
       </c>
@@ -3127,7 +3138,7 @@
       <c r="G41" s="8"/>
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" s="7">
         <v>22410</v>
       </c>
@@ -3149,7 +3160,7 @@
       <c r="G42" s="8"/>
       <c r="J42" s="8"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" s="7">
         <v>14519</v>
       </c>
@@ -3171,7 +3182,7 @@
       <c r="G43" s="8"/>
       <c r="J43" s="8"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" s="7">
         <v>21153</v>
       </c>
@@ -3193,7 +3204,7 @@
       <c r="G44" s="8"/>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" s="7">
         <v>12951</v>
       </c>
@@ -3215,7 +3226,7 @@
       <c r="G45" s="8"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" s="7">
         <v>13789</v>
       </c>
@@ -3235,7 +3246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" s="7">
         <v>10294</v>
       </c>
@@ -3257,7 +3268,7 @@
       <c r="G47" s="8"/>
       <c r="J47" s="8"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" s="7">
         <v>19805</v>
       </c>
@@ -3279,7 +3290,7 @@
       <c r="G48" s="8"/>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" s="7">
         <v>22582</v>
       </c>
@@ -3301,7 +3312,7 @@
       <c r="G49" s="8"/>
       <c r="J49" s="8"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="7">
         <v>18201</v>
       </c>
@@ -3323,7 +3334,7 @@
       <c r="G50" s="8"/>
       <c r="J50" s="8"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" s="7">
         <v>21705</v>
       </c>
@@ -3345,7 +3356,7 @@
       <c r="G51" s="8"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" s="7">
         <v>1194</v>
       </c>
@@ -3367,7 +3378,7 @@
       <c r="G52" s="8"/>
       <c r="J52" s="8"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53" s="7">
         <v>1216</v>
       </c>
@@ -3389,7 +3400,7 @@
       <c r="G53" s="8"/>
       <c r="J53" s="8"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="A54" s="7">
         <v>1237</v>
       </c>
@@ -3411,7 +3422,7 @@
       <c r="G54" s="8"/>
       <c r="J54" s="8"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55" s="7">
         <v>22361</v>
       </c>
@@ -3433,7 +3444,7 @@
       <c r="G55" s="8"/>
       <c r="J55" s="8"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="A56" s="7">
         <v>22362</v>
       </c>
@@ -3455,7 +3466,7 @@
       <c r="G56" s="8"/>
       <c r="J56" s="8"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="A57" s="7">
         <v>22363</v>
       </c>
@@ -3477,7 +3488,7 @@
       <c r="G57" s="8"/>
       <c r="J57" s="8"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="A58" s="7">
         <v>22364</v>
       </c>
@@ -3499,7 +3510,7 @@
       <c r="G58" s="8"/>
       <c r="J58" s="8"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="A59" s="7">
         <v>15195</v>
       </c>
@@ -3521,7 +3532,7 @@
       <c r="G59" s="8"/>
       <c r="J59" s="8"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="A60" s="7">
         <v>15196</v>
       </c>
@@ -3543,7 +3554,7 @@
       <c r="G60" s="8"/>
       <c r="J60" s="8"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="A61" s="7">
         <v>15050</v>
       </c>
@@ -3565,7 +3576,7 @@
       <c r="G61" s="8"/>
       <c r="J61" s="8"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="A62" s="7">
         <v>21295</v>
       </c>
@@ -3587,7 +3598,7 @@
       <c r="G62" s="8"/>
       <c r="J62" s="8"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="A63" s="7">
         <v>1496</v>
       </c>
@@ -3609,7 +3620,7 @@
       <c r="G63" s="8"/>
       <c r="J63" s="8"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="A64" s="7">
         <v>16797</v>
       </c>
@@ -3631,7 +3642,7 @@
       <c r="G64" s="8"/>
       <c r="J64" s="8"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="A65" s="7">
         <v>6511</v>
       </c>
@@ -3653,7 +3664,7 @@
       <c r="G65" s="8"/>
       <c r="J65" s="8"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="A66" s="7">
         <v>19314</v>
       </c>
@@ -3675,7 +3686,7 @@
       <c r="G66" s="8"/>
       <c r="J66" s="8"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="A67" s="7">
         <v>1302</v>
       </c>
@@ -3697,7 +3708,7 @@
       <c r="G67" s="8"/>
       <c r="J67" s="8"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68" s="7">
         <v>1309</v>
       </c>
@@ -3719,7 +3730,7 @@
       <c r="G68" s="8"/>
       <c r="J68" s="8"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" s="7">
         <v>15120</v>
       </c>
@@ -3741,7 +3752,7 @@
       <c r="G69" s="8"/>
       <c r="J69" s="8"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70" s="7">
         <v>15119</v>
       </c>
@@ -3763,7 +3774,7 @@
       <c r="G70" s="8"/>
       <c r="J70" s="8"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="A71" s="7">
         <v>14445</v>
       </c>
@@ -3785,7 +3796,7 @@
       <c r="G71" s="8"/>
       <c r="J71" s="8"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10">
       <c r="A72" s="7">
         <v>1283</v>
       </c>
@@ -3807,7 +3818,7 @@
       <c r="G72" s="8"/>
       <c r="J72" s="8"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="A73" s="7">
         <v>13366</v>
       </c>
@@ -3829,7 +3840,7 @@
       <c r="G73" s="8"/>
       <c r="J73" s="8"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="A74" s="7">
         <v>13371</v>
       </c>
@@ -3851,7 +3862,7 @@
       <c r="G74" s="8"/>
       <c r="J74" s="8"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10">
       <c r="A75" s="7">
         <v>1289</v>
       </c>
@@ -3873,7 +3884,7 @@
       <c r="G75" s="8"/>
       <c r="J75" s="8"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="A76" s="7">
         <v>1316</v>
       </c>
@@ -3895,7 +3906,7 @@
       <c r="G76" s="8"/>
       <c r="J76" s="8"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="A77" s="7">
         <v>13365</v>
       </c>
@@ -3917,7 +3928,7 @@
       <c r="G77" s="8"/>
       <c r="J77" s="8"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="A78" s="7">
         <v>18142</v>
       </c>
@@ -3939,7 +3950,7 @@
       <c r="G78" s="8"/>
       <c r="J78" s="8"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="A79" s="7">
         <v>13585</v>
       </c>
@@ -3961,7 +3972,7 @@
       <c r="G79" s="8"/>
       <c r="J79" s="8"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="A80" s="7">
         <v>6740</v>
       </c>
@@ -3983,7 +3994,7 @@
       <c r="G80" s="8"/>
       <c r="J80" s="8"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10">
       <c r="A81" s="7">
         <v>1343</v>
       </c>
@@ -4005,7 +4016,7 @@
       <c r="G81" s="8"/>
       <c r="J81" s="8"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10">
       <c r="A82" s="7">
         <v>13740</v>
       </c>
@@ -4027,7 +4038,7 @@
       <c r="G82" s="8"/>
       <c r="J82" s="8"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10">
       <c r="A83" s="7">
         <v>13739</v>
       </c>
@@ -4049,7 +4060,7 @@
       <c r="G83" s="8"/>
       <c r="J83" s="8"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10">
       <c r="A84" s="7">
         <v>15271</v>
       </c>
@@ -4071,7 +4082,7 @@
       <c r="G84" s="8"/>
       <c r="J84" s="8"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10">
       <c r="A85" s="7">
         <v>23117</v>
       </c>
@@ -4093,7 +4104,7 @@
       <c r="G85" s="8"/>
       <c r="J85" s="8"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10">
       <c r="A86" s="7">
         <v>15203</v>
       </c>
@@ -4115,7 +4126,7 @@
       <c r="G86" s="8"/>
       <c r="J86" s="8"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10">
       <c r="A87" s="7">
         <v>15204</v>
       </c>
@@ -4137,7 +4148,7 @@
       <c r="G87" s="8"/>
       <c r="J87" s="8"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10">
       <c r="A88" s="7">
         <v>1406</v>
       </c>
@@ -4159,7 +4170,7 @@
       <c r="G88" s="8"/>
       <c r="J88" s="8"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10">
       <c r="A89" s="7">
         <v>1388</v>
       </c>
@@ -4181,7 +4192,7 @@
       <c r="G89" s="8"/>
       <c r="J89" s="8"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10">
       <c r="A90" s="7">
         <v>15205</v>
       </c>
@@ -4203,7 +4214,7 @@
       <c r="G90" s="8"/>
       <c r="J90" s="8"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10">
       <c r="A91" s="7">
         <v>13822</v>
       </c>
@@ -4225,7 +4236,7 @@
       <c r="G91" s="8"/>
       <c r="J91" s="8"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10">
       <c r="A92" s="7">
         <v>13821</v>
       </c>
@@ -4247,7 +4258,7 @@
       <c r="G92" s="8"/>
       <c r="J92" s="8"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10">
       <c r="A93" s="8">
         <v>16110</v>
       </c>
@@ -4269,7 +4280,7 @@
       <c r="G93" s="8"/>
       <c r="J93" s="8"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10">
       <c r="A94" s="8">
         <v>16168</v>
       </c>
@@ -4291,7 +4302,7 @@
       <c r="G94" s="8"/>
       <c r="J94" s="8"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10">
       <c r="A95" s="7">
         <v>12243</v>
       </c>
@@ -4313,7 +4324,7 @@
       <c r="G95" s="8"/>
       <c r="J95" s="8"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10">
       <c r="A96" s="7">
         <v>16167</v>
       </c>
@@ -4335,7 +4346,7 @@
       <c r="G96" s="8"/>
       <c r="J96" s="8"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10">
       <c r="A97" s="7">
         <v>13823</v>
       </c>
@@ -4357,7 +4368,7 @@
       <c r="G97" s="8"/>
       <c r="J97" s="8"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10">
       <c r="A98" s="7">
         <v>13824</v>
       </c>
@@ -4379,7 +4390,7 @@
       <c r="G98" s="8"/>
       <c r="J98" s="8"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10">
       <c r="A99" s="7">
         <v>22676</v>
       </c>
@@ -4401,7 +4412,7 @@
       <c r="G99" s="8"/>
       <c r="J99" s="8"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10">
       <c r="A100" s="7">
         <v>13825</v>
       </c>
@@ -4423,7 +4434,7 @@
       <c r="G100" s="8"/>
       <c r="J100" s="8"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10">
       <c r="A101" s="7">
         <v>13826</v>
       </c>
@@ -4445,7 +4456,7 @@
       <c r="G101" s="8"/>
       <c r="J101" s="8"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10">
       <c r="A102" s="7">
         <v>13322</v>
       </c>
@@ -4467,7 +4478,7 @@
       <c r="G102" s="8"/>
       <c r="J102" s="8"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10">
       <c r="A103" s="7">
         <v>23190</v>
       </c>
@@ -4489,7 +4500,7 @@
       <c r="G103" s="8"/>
       <c r="J103" s="8"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10">
       <c r="A104" s="7">
         <v>14092</v>
       </c>
@@ -4511,7 +4522,7 @@
       <c r="G104" s="8"/>
       <c r="J104" s="8"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10">
       <c r="A105" s="7">
         <v>16042</v>
       </c>
@@ -4533,7 +4544,7 @@
       <c r="G105" s="8"/>
       <c r="J105" s="8"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10">
       <c r="A106" s="7">
         <v>9767</v>
       </c>
@@ -4555,7 +4566,7 @@
       <c r="G106" s="8"/>
       <c r="J106" s="8"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10">
       <c r="A107" s="7">
         <v>16349</v>
       </c>
@@ -4577,7 +4588,7 @@
       <c r="G107" s="8"/>
       <c r="J107" s="8"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10">
       <c r="A108" s="7">
         <v>12160</v>
       </c>
@@ -4599,7 +4610,7 @@
       <c r="G108" s="8"/>
       <c r="J108" s="8"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10">
       <c r="A109" s="7">
         <v>867</v>
       </c>
@@ -4621,7 +4632,7 @@
       <c r="G109" s="8"/>
       <c r="J109" s="8"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10">
       <c r="A110" s="7">
         <v>13063</v>
       </c>
@@ -4643,7 +4654,7 @@
       <c r="G110" s="8"/>
       <c r="J110" s="8"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10">
       <c r="A111" s="7">
         <v>16082</v>
       </c>
@@ -4665,7 +4676,7 @@
       <c r="G111" s="8"/>
       <c r="J111" s="8"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10">
       <c r="A112" s="7">
         <v>16083</v>
       </c>
@@ -4687,7 +4698,7 @@
       <c r="G112" s="8"/>
       <c r="J112" s="8"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10">
       <c r="A113" s="7">
         <v>16111</v>
       </c>
@@ -4709,7 +4720,7 @@
       <c r="G113" s="8"/>
       <c r="J113" s="8"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10">
       <c r="A114" s="7">
         <v>18157</v>
       </c>
@@ -4731,7 +4742,7 @@
       <c r="G114" s="8"/>
       <c r="J114" s="8"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10">
       <c r="A115" s="7">
         <v>878</v>
       </c>
@@ -4753,7 +4764,7 @@
       <c r="G115" s="8"/>
       <c r="J115" s="8"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10">
       <c r="A116" s="7">
         <v>5049</v>
       </c>
@@ -4775,7 +4786,7 @@
       <c r="G116" s="8"/>
       <c r="J116" s="8"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10">
       <c r="A117" s="7">
         <v>712</v>
       </c>
@@ -4797,7 +4808,7 @@
       <c r="G117" s="8"/>
       <c r="J117" s="8"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10">
       <c r="A118" s="7">
         <v>10825</v>
       </c>
@@ -4819,7 +4830,7 @@
       <c r="G118" s="8"/>
       <c r="J118" s="8"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10">
       <c r="A119" s="7">
         <v>10826</v>
       </c>
@@ -4841,7 +4852,7 @@
       <c r="G119" s="8"/>
       <c r="J119" s="8"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10">
       <c r="A120" s="7">
         <v>10827</v>
       </c>
@@ -4863,7 +4874,7 @@
       <c r="G120" s="8"/>
       <c r="J120" s="8"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10">
       <c r="A121" s="7">
         <v>11902</v>
       </c>
@@ -4885,7 +4896,7 @@
       <c r="G121" s="8"/>
       <c r="J121" s="8"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10">
       <c r="A122" s="7">
         <v>15546</v>
       </c>
@@ -4907,7 +4918,7 @@
       <c r="G122" s="8"/>
       <c r="J122" s="8"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10">
       <c r="A123" s="7">
         <v>15547</v>
       </c>
@@ -4929,7 +4940,7 @@
       <c r="G123" s="8"/>
       <c r="J123" s="8"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10">
       <c r="A124" s="7">
         <v>23001</v>
       </c>
@@ -4951,7 +4962,7 @@
       <c r="G124" s="8"/>
       <c r="J124" s="8"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10">
       <c r="A125" s="8">
         <v>15543</v>
       </c>
@@ -4973,7 +4984,7 @@
       <c r="G125" s="8"/>
       <c r="J125" s="8"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10">
       <c r="A126" s="8">
         <v>15541</v>
       </c>
@@ -4995,7 +5006,7 @@
       <c r="G126" s="8"/>
       <c r="J126" s="8"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10">
       <c r="A127" s="8">
         <v>14101</v>
       </c>
@@ -5017,7 +5028,7 @@
       <c r="G127" s="8"/>
       <c r="J127" s="8"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10">
       <c r="A128" s="8">
         <v>13317</v>
       </c>
@@ -5039,7 +5050,7 @@
       <c r="G128" s="8"/>
       <c r="J128" s="8"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10">
       <c r="A129" s="7">
         <v>18243</v>
       </c>
@@ -5061,7 +5072,7 @@
       <c r="G129" s="8"/>
       <c r="J129" s="8"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10">
       <c r="A130" s="7">
         <v>16773</v>
       </c>
@@ -5083,7 +5094,7 @@
       <c r="G130" s="8"/>
       <c r="J130" s="8"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10">
       <c r="A131" s="8">
         <v>12844</v>
       </c>
@@ -5105,7 +5116,7 @@
       <c r="G131" s="8"/>
       <c r="J131" s="8"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10">
       <c r="A132" s="7">
         <v>18225</v>
       </c>
@@ -5127,7 +5138,7 @@
       <c r="G132" s="8"/>
       <c r="J132" s="8"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10">
       <c r="A133" s="7">
         <v>19109</v>
       </c>
@@ -5149,7 +5160,7 @@
       <c r="G133" s="8"/>
       <c r="J133" s="8"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10">
       <c r="A134" s="7">
         <v>13903</v>
       </c>
@@ -5171,7 +5182,7 @@
       <c r="G134" s="8"/>
       <c r="J134" s="8"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10">
       <c r="A135" s="8">
         <v>14236</v>
       </c>
@@ -5193,7 +5204,7 @@
       <c r="G135" s="8"/>
       <c r="J135" s="8"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10">
       <c r="A136" s="8">
         <v>7624</v>
       </c>
@@ -5215,7 +5226,7 @@
       <c r="G136" s="8"/>
       <c r="J136" s="8"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10">
       <c r="A137" s="8">
         <v>13338</v>
       </c>
@@ -5237,7 +5248,7 @@
       <c r="G137" s="8"/>
       <c r="J137" s="8"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10">
       <c r="A138" s="7">
         <v>22268</v>
       </c>
@@ -5259,7 +5270,7 @@
       <c r="G138" s="8"/>
       <c r="J138" s="8"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10">
       <c r="A139" s="7">
         <v>16777</v>
       </c>
@@ -5281,7 +5292,7 @@
       <c r="G139" s="8"/>
       <c r="J139" s="8"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10">
       <c r="A140" s="8">
         <v>13336</v>
       </c>
@@ -5303,7 +5314,7 @@
       <c r="G140" s="8"/>
       <c r="J140" s="8"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10">
       <c r="A141" s="7">
         <v>3408</v>
       </c>
@@ -5325,7 +5336,7 @@
       <c r="G141" s="8"/>
       <c r="J141" s="8"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10">
       <c r="A142" s="7">
         <v>3412</v>
       </c>
@@ -5347,7 +5358,7 @@
       <c r="G142" s="8"/>
       <c r="J142" s="8"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10">
       <c r="A143" s="7">
         <v>9632</v>
       </c>
@@ -5369,7 +5380,7 @@
       <c r="G143" s="8"/>
       <c r="J143" s="8"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10">
       <c r="A144" s="7">
         <v>15360</v>
       </c>
@@ -5391,7 +5402,7 @@
       <c r="G144" s="8"/>
       <c r="J144" s="8"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10">
       <c r="A145" s="7">
         <v>15361</v>
       </c>
@@ -5413,7 +5424,7 @@
       <c r="G145" s="8"/>
       <c r="J145" s="8"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10">
       <c r="A146" s="7">
         <v>15362</v>
       </c>
@@ -5435,7 +5446,7 @@
       <c r="G146" s="8"/>
       <c r="J146" s="8"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10">
       <c r="A147" s="7">
         <v>15363</v>
       </c>
@@ -5457,7 +5468,7 @@
       <c r="G147" s="8"/>
       <c r="J147" s="8"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10">
       <c r="A148" s="7">
         <v>15364</v>
       </c>
@@ -5479,7 +5490,7 @@
       <c r="G148" s="8"/>
       <c r="J148" s="8"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10">
       <c r="A149" s="7">
         <v>15365</v>
       </c>
@@ -5501,7 +5512,7 @@
       <c r="G149" s="8"/>
       <c r="J149" s="8"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10">
       <c r="A150" s="7">
         <v>22534</v>
       </c>
@@ -5523,7 +5534,7 @@
       <c r="G150" s="8"/>
       <c r="J150" s="8"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10">
       <c r="A151" s="7">
         <v>9734</v>
       </c>
@@ -5545,7 +5556,7 @@
       <c r="G151" s="8"/>
       <c r="J151" s="8"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10">
       <c r="A152" s="7">
         <v>3444</v>
       </c>
@@ -5567,7 +5578,7 @@
       <c r="G152" s="8"/>
       <c r="J152" s="8"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10">
       <c r="A153" s="7">
         <v>19957</v>
       </c>
@@ -5589,7 +5600,7 @@
       <c r="G153" s="8"/>
       <c r="J153" s="8"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10">
       <c r="A154" s="7">
         <v>3658</v>
       </c>
@@ -5611,7 +5622,7 @@
       <c r="G154" s="8"/>
       <c r="J154" s="8"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10">
       <c r="A155" s="7">
         <v>9723</v>
       </c>
@@ -5633,7 +5644,7 @@
       <c r="G155" s="8"/>
       <c r="J155" s="8"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10">
       <c r="A156" s="7">
         <v>3665</v>
       </c>
@@ -5655,7 +5666,7 @@
       <c r="G156" s="8"/>
       <c r="J156" s="8"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10">
       <c r="A157" s="7">
         <v>22540</v>
       </c>
@@ -5677,7 +5688,7 @@
       <c r="G157" s="8"/>
       <c r="J157" s="8"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10">
       <c r="A158" s="7">
         <v>9740</v>
       </c>
@@ -5699,7 +5710,7 @@
       <c r="G158" s="8"/>
       <c r="J158" s="8"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10">
       <c r="A159" s="7">
         <v>9728</v>
       </c>
@@ -5721,7 +5732,7 @@
       <c r="G159" s="8"/>
       <c r="J159" s="8"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10">
       <c r="A160" s="7">
         <v>16052</v>
       </c>
@@ -5743,7 +5754,7 @@
       <c r="G160" s="8"/>
       <c r="J160" s="8"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10">
       <c r="A161" s="7">
         <v>22541</v>
       </c>
@@ -5765,7 +5776,7 @@
       <c r="G161" s="8"/>
       <c r="J161" s="8"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10">
       <c r="A162" s="7">
         <v>16050</v>
       </c>
@@ -5787,7 +5798,7 @@
       <c r="G162" s="8"/>
       <c r="J162" s="8"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10">
       <c r="A163" s="7">
         <v>3398</v>
       </c>
@@ -5809,7 +5820,7 @@
       <c r="G163" s="8"/>
       <c r="J163" s="8"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10">
       <c r="A164" s="7">
         <v>18288</v>
       </c>
@@ -5831,7 +5842,7 @@
       <c r="G164" s="8"/>
       <c r="J164" s="8"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10">
       <c r="A165" s="7">
         <v>19969</v>
       </c>
@@ -5853,7 +5864,7 @@
       <c r="G165" s="8"/>
       <c r="J165" s="8"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10">
       <c r="A166" s="7">
         <v>19970</v>
       </c>
@@ -5875,7 +5886,7 @@
       <c r="G166" s="8"/>
       <c r="J166" s="8"/>
     </row>
-    <row r="167" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" s="12" customFormat="1">
       <c r="A167" s="7">
         <v>22542</v>
       </c>
@@ -5897,7 +5908,7 @@
       <c r="G167" s="11"/>
       <c r="J167" s="11"/>
     </row>
-    <row r="168" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" s="12" customFormat="1">
       <c r="A168" s="7">
         <v>22543</v>
       </c>
@@ -5919,7 +5930,7 @@
       <c r="G168" s="11"/>
       <c r="J168" s="11"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10">
       <c r="A169" s="7">
         <v>21293</v>
       </c>
@@ -5941,7 +5952,7 @@
       <c r="G169" s="8"/>
       <c r="J169" s="8"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" ht="15">
       <c r="A170" s="7">
         <v>3689</v>
       </c>
@@ -5963,7 +5974,7 @@
       <c r="G170" s="8"/>
       <c r="J170" s="8"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" ht="15">
       <c r="A171" s="7">
         <v>14180</v>
       </c>
@@ -5985,7 +5996,7 @@
       <c r="G171" s="8"/>
       <c r="J171" s="8"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10">
       <c r="A172" s="7">
         <v>6319</v>
       </c>
@@ -6007,7 +6018,7 @@
       <c r="G172" s="8"/>
       <c r="J172" s="8"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10">
       <c r="A173" s="7">
         <v>6480</v>
       </c>
@@ -6029,7 +6040,7 @@
       <c r="G173" s="8"/>
       <c r="J173" s="8"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10">
       <c r="A174" s="7">
         <v>23116</v>
       </c>
@@ -6051,7 +6062,7 @@
       <c r="G174" s="8"/>
       <c r="J174" s="8"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10">
       <c r="A175" s="7">
         <v>15530</v>
       </c>
@@ -6073,7 +6084,7 @@
       <c r="G175" s="8"/>
       <c r="J175" s="8"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10">
       <c r="A176" s="5">
         <v>15531</v>
       </c>
@@ -6095,7 +6106,7 @@
       <c r="G176" s="8"/>
       <c r="J176" s="8"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10">
       <c r="A177" s="7">
         <v>18273</v>
       </c>
@@ -6117,7 +6128,7 @@
       <c r="G177" s="8"/>
       <c r="J177" s="8"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10">
       <c r="A178" s="7">
         <v>9142</v>
       </c>
@@ -6139,7 +6150,7 @@
       <c r="G178" s="8"/>
       <c r="J178" s="8"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10">
       <c r="A179" s="7">
         <v>11241</v>
       </c>
@@ -6161,7 +6172,7 @@
       <c r="G179" s="8"/>
       <c r="J179" s="8"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10">
       <c r="A180" s="7">
         <v>11238</v>
       </c>
@@ -6183,7 +6194,7 @@
       <c r="G180" s="8"/>
       <c r="J180" s="8"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10">
       <c r="A181" s="7">
         <v>2816</v>
       </c>
@@ -6205,7 +6216,7 @@
       <c r="G181" s="8"/>
       <c r="J181" s="8"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10">
       <c r="A182" s="7">
         <v>19360</v>
       </c>
@@ -6227,7 +6238,7 @@
       <c r="G182" s="8"/>
       <c r="J182" s="8"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10">
       <c r="A183" s="7">
         <v>19361</v>
       </c>
@@ -6249,7 +6260,7 @@
       <c r="G183" s="8"/>
       <c r="J183" s="8"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10">
       <c r="A184" s="7">
         <v>11247</v>
       </c>
@@ -6271,7 +6282,7 @@
       <c r="G184" s="8"/>
       <c r="J184" s="8"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10">
       <c r="A185" s="7">
         <v>11249</v>
       </c>
@@ -6293,7 +6304,7 @@
       <c r="G185" s="8"/>
       <c r="J185" s="8"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10">
       <c r="A186" s="7">
         <v>16789</v>
       </c>
@@ -6315,7 +6326,7 @@
       <c r="G186" s="8"/>
       <c r="J186" s="8"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10">
       <c r="A187" s="7">
         <v>19836</v>
       </c>
@@ -6337,7 +6348,7 @@
       <c r="G187" s="8"/>
       <c r="J187" s="8"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10">
       <c r="A188" s="7">
         <v>19370</v>
       </c>
@@ -6359,7 +6370,7 @@
       <c r="G188" s="8"/>
       <c r="J188" s="8"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10">
       <c r="A189" s="7">
         <v>20062</v>
       </c>
@@ -6381,7 +6392,7 @@
       <c r="G189" s="8"/>
       <c r="J189" s="8"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10">
       <c r="A190" s="7">
         <v>2977</v>
       </c>
@@ -6403,7 +6414,7 @@
       <c r="G190" s="8"/>
       <c r="J190" s="8"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10">
       <c r="A191" s="7">
         <v>13566</v>
       </c>
@@ -6425,7 +6436,7 @@
       <c r="G191" s="8"/>
       <c r="J191" s="8"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10">
       <c r="A192" s="7">
         <v>15265</v>
       </c>
@@ -6447,7 +6458,7 @@
       <c r="G192" s="8"/>
       <c r="J192" s="8"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10">
       <c r="A193" s="7">
         <v>2922</v>
       </c>
@@ -6469,7 +6480,7 @@
       <c r="G193" s="8"/>
       <c r="J193" s="8"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10">
       <c r="A194" s="7">
         <v>19376</v>
       </c>
@@ -6491,7 +6502,7 @@
       <c r="G194" s="8"/>
       <c r="J194" s="8"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10">
       <c r="A195" s="7">
         <v>20302</v>
       </c>
@@ -6513,7 +6524,7 @@
       <c r="G195" s="8"/>
       <c r="J195" s="8"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10">
       <c r="A196" s="7">
         <v>19375</v>
       </c>
@@ -6535,7 +6546,7 @@
       <c r="G196" s="8"/>
       <c r="J196" s="8"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10">
       <c r="A197" s="7">
         <v>20303</v>
       </c>
@@ -6557,7 +6568,7 @@
       <c r="G197" s="8"/>
       <c r="J197" s="8"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10">
       <c r="A198" s="7">
         <v>20304</v>
       </c>
@@ -6579,7 +6590,7 @@
       <c r="G198" s="8"/>
       <c r="J198" s="8"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10">
       <c r="A199" s="7">
         <v>11254</v>
       </c>
@@ -6601,7 +6612,7 @@
       <c r="G199" s="8"/>
       <c r="J199" s="8"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10">
       <c r="A200" s="7">
         <v>19670</v>
       </c>
@@ -6623,7 +6634,7 @@
       <c r="G200" s="8"/>
       <c r="J200" s="8"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10">
       <c r="A201" s="7">
         <v>17052</v>
       </c>
@@ -6645,7 +6656,7 @@
       <c r="G201" s="8"/>
       <c r="J201" s="8"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10">
       <c r="A202" s="7">
         <v>20893</v>
       </c>
@@ -6667,7 +6678,7 @@
       <c r="G202" s="8"/>
       <c r="J202" s="8"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10">
       <c r="A203" s="7">
         <v>1612</v>
       </c>
@@ -6689,7 +6700,7 @@
       <c r="G203" s="8"/>
       <c r="J203" s="8"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10">
       <c r="A204" s="7">
         <v>1676</v>
       </c>
@@ -6711,7 +6722,7 @@
       <c r="G204" s="8"/>
       <c r="J204" s="8"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10">
       <c r="A205" s="7">
         <v>1694</v>
       </c>
@@ -6733,7 +6744,7 @@
       <c r="G205" s="8"/>
       <c r="J205" s="8"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10">
       <c r="A206" s="7">
         <v>16901</v>
       </c>
@@ -6755,7 +6766,7 @@
       <c r="G206" s="8"/>
       <c r="J206" s="8"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10">
       <c r="A207" s="7">
         <v>1722</v>
       </c>
@@ -6777,7 +6788,7 @@
       <c r="G207" s="8"/>
       <c r="J207" s="8"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10">
       <c r="A208" s="7">
         <v>1737</v>
       </c>
@@ -6799,7 +6810,7 @@
       <c r="G208" s="8"/>
       <c r="J208" s="8"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10">
       <c r="A209" s="7">
         <v>16417</v>
       </c>
@@ -6821,7 +6832,7 @@
       <c r="G209" s="8"/>
       <c r="J209" s="8"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10">
       <c r="A210" s="7">
         <v>1754</v>
       </c>
@@ -6843,7 +6854,7 @@
       <c r="G210" s="8"/>
       <c r="J210" s="8"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10">
       <c r="A211" s="7">
         <v>12397</v>
       </c>
@@ -6865,7 +6876,7 @@
       <c r="G211" s="8"/>
       <c r="J211" s="8"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10">
       <c r="A212" s="7">
         <v>1660</v>
       </c>
@@ -6887,7 +6898,7 @@
       <c r="G212" s="8"/>
       <c r="J212" s="8"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10">
       <c r="A213" s="7">
         <v>22266</v>
       </c>
@@ -6909,7 +6920,7 @@
       <c r="G213" s="8"/>
       <c r="J213" s="8"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10">
       <c r="A214" s="7">
         <v>22264</v>
       </c>
@@ -6931,7 +6942,7 @@
       <c r="G214" s="8"/>
       <c r="J214" s="8"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10">
       <c r="A215" s="7">
         <v>1626</v>
       </c>
@@ -6953,7 +6964,7 @@
       <c r="G215" s="8"/>
       <c r="J215" s="8"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10">
       <c r="A216" s="7">
         <v>1822</v>
       </c>
@@ -6975,7 +6986,7 @@
       <c r="G216" s="8"/>
       <c r="J216" s="8"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10">
       <c r="A217" s="7">
         <v>14533</v>
       </c>
@@ -6997,7 +7008,7 @@
       <c r="G217" s="8"/>
       <c r="J217" s="8"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10">
       <c r="A218" s="7">
         <v>14535</v>
       </c>
@@ -7019,7 +7030,7 @@
       <c r="G218" s="8"/>
       <c r="J218" s="8"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10">
       <c r="A219" s="7">
         <v>18181</v>
       </c>
@@ -7041,7 +7052,7 @@
       <c r="G219" s="8"/>
       <c r="J219" s="8"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10">
       <c r="A220" s="7">
         <v>11415</v>
       </c>
@@ -7063,7 +7074,7 @@
       <c r="G220" s="8"/>
       <c r="J220" s="8"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10">
       <c r="A221" s="7">
         <v>18175</v>
       </c>
@@ -7085,7 +7096,7 @@
       <c r="G221" s="8"/>
       <c r="J221" s="8"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10">
       <c r="A222" s="7">
         <v>18182</v>
       </c>
@@ -7107,7 +7118,7 @@
       <c r="G222" s="8"/>
       <c r="J222" s="8"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10">
       <c r="A223" s="7">
         <v>20887</v>
       </c>
@@ -7129,7 +7140,7 @@
       <c r="G223" s="8"/>
       <c r="J223" s="8"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10">
       <c r="A224" s="7">
         <v>1774</v>
       </c>
@@ -7151,7 +7162,7 @@
       <c r="G224" s="8"/>
       <c r="J224" s="8"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10">
       <c r="A225" s="7">
         <v>18177</v>
       </c>
@@ -7173,7 +7184,7 @@
       <c r="G225" s="8"/>
       <c r="J225" s="8"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10">
       <c r="A226" s="7">
         <v>16399</v>
       </c>
@@ -7195,7 +7206,7 @@
       <c r="G226" s="8"/>
       <c r="J226" s="8"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10">
       <c r="A227" s="7">
         <v>11414</v>
       </c>
@@ -7217,7 +7228,7 @@
       <c r="G227" s="8"/>
       <c r="J227" s="8"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10">
       <c r="A228" s="7">
         <v>22261</v>
       </c>
@@ -7239,7 +7250,7 @@
       <c r="G228" s="8"/>
       <c r="J228" s="8"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10">
       <c r="A229" s="7">
         <v>22262</v>
       </c>
@@ -7261,7 +7272,7 @@
       <c r="G229" s="8"/>
       <c r="J229" s="8"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10">
       <c r="A230" s="7">
         <v>19999</v>
       </c>
@@ -7283,7 +7294,7 @@
       <c r="G230" s="8"/>
       <c r="J230" s="8"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10">
       <c r="A231" s="7">
         <v>1609</v>
       </c>
@@ -7305,7 +7316,7 @@
       <c r="G231" s="8"/>
       <c r="J231" s="8"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10">
       <c r="A232" s="7">
         <v>13959</v>
       </c>
@@ -7327,7 +7338,7 @@
       <c r="G232" s="8"/>
       <c r="J232" s="8"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10">
       <c r="A233" s="7">
         <v>18185</v>
       </c>
@@ -7349,7 +7360,7 @@
       <c r="G233" s="8"/>
       <c r="J233" s="8"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10">
       <c r="A234" s="7">
         <v>11435</v>
       </c>
@@ -7371,7 +7382,7 @@
       <c r="G234" s="8"/>
       <c r="J234" s="8"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10">
       <c r="A235" s="7">
         <v>5865</v>
       </c>
@@ -7393,7 +7404,7 @@
       <c r="G235" s="8"/>
       <c r="J235" s="8"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10">
       <c r="A236" s="7">
         <v>5835</v>
       </c>
@@ -7415,7 +7426,7 @@
       <c r="G236" s="8"/>
       <c r="J236" s="8"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10">
       <c r="A237" s="7">
         <v>11704</v>
       </c>
@@ -7437,7 +7448,7 @@
       <c r="G237" s="8"/>
       <c r="J237" s="8"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10">
       <c r="A238" s="7">
         <v>5873</v>
       </c>
@@ -7459,7 +7470,7 @@
       <c r="G238" s="8"/>
       <c r="J238" s="8"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10">
       <c r="A239" s="7">
         <v>5878</v>
       </c>
@@ -7481,7 +7492,7 @@
       <c r="G239" s="8"/>
       <c r="J239" s="8"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10">
       <c r="A240" s="7">
         <v>5883</v>
       </c>
@@ -7503,7 +7514,7 @@
       <c r="G240" s="8"/>
       <c r="J240" s="8"/>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10">
       <c r="A241" s="7">
         <v>12366</v>
       </c>
@@ -7525,7 +7536,7 @@
       <c r="G241" s="8"/>
       <c r="J241" s="8"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10">
       <c r="A242" s="7">
         <v>18231</v>
       </c>
@@ -7547,7 +7558,7 @@
       <c r="G242" s="8"/>
       <c r="J242" s="8"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10">
       <c r="A243" s="7">
         <v>15375</v>
       </c>
@@ -7569,7 +7580,7 @@
       <c r="G243" s="8"/>
       <c r="J243" s="8"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10">
       <c r="A244" s="7">
         <v>15376</v>
       </c>
@@ -7591,7 +7602,7 @@
       <c r="G244" s="8"/>
       <c r="J244" s="8"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10">
       <c r="A245" s="7">
         <v>15853</v>
       </c>
@@ -7613,7 +7624,7 @@
       <c r="G245" s="8"/>
       <c r="J245" s="8"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10">
       <c r="A246" s="7">
         <v>21727</v>
       </c>
@@ -7635,7 +7646,7 @@
       <c r="G246" s="8"/>
       <c r="J246" s="8"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10">
       <c r="A247" s="7">
         <v>22512</v>
       </c>
@@ -7657,7 +7668,7 @@
       <c r="G247" s="8"/>
       <c r="J247" s="8"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10">
       <c r="A248" s="7">
         <v>11678</v>
       </c>
@@ -7679,7 +7690,7 @@
       <c r="G248" s="8"/>
       <c r="J248" s="8"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10">
       <c r="A249" s="7">
         <v>11680</v>
       </c>
@@ -7701,7 +7712,7 @@
       <c r="G249" s="8"/>
       <c r="J249" s="8"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10">
       <c r="A250" s="7">
         <v>11679</v>
       </c>
@@ -7723,7 +7734,7 @@
       <c r="G250" s="8"/>
       <c r="J250" s="8"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10">
       <c r="A251" s="7">
         <v>13838</v>
       </c>
@@ -7745,7 +7756,7 @@
       <c r="G251" s="8"/>
       <c r="J251" s="8"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10">
       <c r="A252" s="7">
         <v>5894</v>
       </c>
@@ -7767,7 +7778,7 @@
       <c r="G252" s="8"/>
       <c r="J252" s="8"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10">
       <c r="A253" s="7">
         <v>5165</v>
       </c>
@@ -7789,7 +7800,7 @@
       <c r="G253" s="8"/>
       <c r="J253" s="8"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10">
       <c r="A254" s="7">
         <v>2454</v>
       </c>
@@ -7811,7 +7822,7 @@
       <c r="G254" s="8"/>
       <c r="J254" s="8"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10">
       <c r="A255" s="7">
         <v>15733</v>
       </c>
@@ -7833,7 +7844,7 @@
       <c r="G255" s="8"/>
       <c r="J255" s="8"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10">
       <c r="A256" s="7">
         <v>19541</v>
       </c>
@@ -7855,7 +7866,7 @@
       <c r="G256" s="8"/>
       <c r="J256" s="8"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10">
       <c r="A257" s="7">
         <v>14208</v>
       </c>
@@ -7877,7 +7888,7 @@
       <c r="G257" s="8"/>
       <c r="J257" s="8"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10">
       <c r="A258" s="7">
         <v>22021</v>
       </c>
@@ -7899,7 +7910,7 @@
       <c r="G258" s="8"/>
       <c r="J258" s="8"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10">
       <c r="A259" s="7">
         <v>4780</v>
       </c>
@@ -7921,7 +7932,7 @@
       <c r="G259" s="8"/>
       <c r="J259" s="8"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10">
       <c r="A260" s="7">
         <v>5347</v>
       </c>
@@ -7943,7 +7954,7 @@
       <c r="G260" s="8"/>
       <c r="J260" s="8"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10">
       <c r="A261" s="7">
         <v>5365</v>
       </c>
@@ -7965,7 +7976,7 @@
       <c r="G261" s="8"/>
       <c r="J261" s="8"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10">
       <c r="A262" s="7">
         <v>12219</v>
       </c>
@@ -7987,7 +7998,7 @@
       <c r="G262" s="8"/>
       <c r="J262" s="8"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10">
       <c r="A263" s="7">
         <v>15222</v>
       </c>
@@ -8009,7 +8020,7 @@
       <c r="G263" s="8"/>
       <c r="J263" s="8"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10">
       <c r="A264" s="7">
         <v>20910</v>
       </c>
@@ -8031,7 +8042,7 @@
       <c r="G264" s="8"/>
       <c r="J264" s="8"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10">
       <c r="A265" s="7">
         <v>23079</v>
       </c>
@@ -8053,7 +8064,7 @@
       <c r="G265" s="8"/>
       <c r="J265" s="8"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10">
       <c r="A266" s="7">
         <v>15735</v>
       </c>
@@ -8075,7 +8086,7 @@
       <c r="G266" s="8"/>
       <c r="J266" s="8"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10">
       <c r="A267" s="7">
         <v>15734</v>
       </c>
@@ -8097,7 +8108,7 @@
       <c r="G267" s="8"/>
       <c r="J267" s="8"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10">
       <c r="A268" s="7">
         <v>18303</v>
       </c>
@@ -8119,7 +8130,7 @@
       <c r="G268" s="8"/>
       <c r="J268" s="8"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10">
       <c r="A269" s="7">
         <v>13355</v>
       </c>
@@ -8141,7 +8152,7 @@
       <c r="G269" s="8"/>
       <c r="J269" s="8"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10">
       <c r="A270" s="7">
         <v>5405</v>
       </c>
@@ -8163,7 +8174,7 @@
       <c r="G270" s="8"/>
       <c r="J270" s="8"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10">
       <c r="A271" s="7">
         <v>5447</v>
       </c>
@@ -8185,7 +8196,7 @@
       <c r="G271" s="8"/>
       <c r="J271" s="8"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10">
       <c r="A272" s="7">
         <v>5470</v>
       </c>
@@ -8207,7 +8218,7 @@
       <c r="G272" s="8"/>
       <c r="J272" s="8"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10">
       <c r="A273" s="7">
         <v>5485</v>
       </c>
@@ -8229,7 +8240,7 @@
       <c r="G273" s="8"/>
       <c r="J273" s="8"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10">
       <c r="A274" s="7">
         <v>15230</v>
       </c>
@@ -8251,7 +8262,7 @@
       <c r="G274" s="8"/>
       <c r="J274" s="8"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10">
       <c r="A275" s="7">
         <v>19547</v>
       </c>
@@ -8273,7 +8284,7 @@
       <c r="G275" s="8"/>
       <c r="J275" s="8"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10">
       <c r="A276" s="7">
         <v>19975</v>
       </c>
@@ -8295,7 +8306,7 @@
       <c r="G276" s="8"/>
       <c r="J276" s="8"/>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10">
       <c r="A277" s="7">
         <v>4858</v>
       </c>
@@ -8317,7 +8328,7 @@
       <c r="G277" s="8"/>
       <c r="J277" s="8"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10">
       <c r="A278" s="7">
         <v>17628</v>
       </c>
@@ -8339,7 +8350,7 @@
       <c r="G278" s="8"/>
       <c r="J278" s="8"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10">
       <c r="A279" s="7">
         <v>4872</v>
       </c>
@@ -8361,7 +8372,7 @@
       <c r="G279" s="8"/>
       <c r="J279" s="8"/>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10">
       <c r="A280" s="7">
         <v>10869</v>
       </c>
@@ -8383,7 +8394,7 @@
       <c r="G280" s="8"/>
       <c r="J280" s="8"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10">
       <c r="A281" s="7">
         <v>16212</v>
       </c>
@@ -8405,7 +8416,7 @@
       <c r="G281" s="8"/>
       <c r="J281" s="8"/>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10">
       <c r="A282" s="7">
         <v>17536</v>
       </c>
@@ -8427,7 +8438,7 @@
       <c r="G282" s="8"/>
       <c r="J282" s="8"/>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10">
       <c r="A283" s="7">
         <v>17537</v>
       </c>
@@ -8449,7 +8460,7 @@
       <c r="G283" s="8"/>
       <c r="J283" s="8"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10">
       <c r="A284" s="7">
         <v>17932</v>
       </c>
@@ -8471,7 +8482,7 @@
       <c r="G284" s="8"/>
       <c r="J284" s="8"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10">
       <c r="A285" s="7">
         <v>17933</v>
       </c>
@@ -8493,7 +8504,7 @@
       <c r="G285" s="8"/>
       <c r="J285" s="8"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10">
       <c r="A286" s="7">
         <v>17934</v>
       </c>
@@ -8515,7 +8526,7 @@
       <c r="G286" s="8"/>
       <c r="J286" s="8"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10">
       <c r="A287" s="7">
         <v>17935</v>
       </c>
@@ -8537,7 +8548,7 @@
       <c r="G287" s="8"/>
       <c r="J287" s="8"/>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10">
       <c r="A288" s="7">
         <v>21154</v>
       </c>
@@ -8559,7 +8570,7 @@
       <c r="G288" s="8"/>
       <c r="J288" s="8"/>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10">
       <c r="A289" s="7">
         <v>21682</v>
       </c>
@@ -8581,7 +8592,7 @@
       <c r="G289" s="8"/>
       <c r="J289" s="8"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10">
       <c r="A290" s="7">
         <v>21694</v>
       </c>
@@ -8603,7 +8614,7 @@
       <c r="G290" s="8"/>
       <c r="J290" s="8"/>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10">
       <c r="A291" s="7">
         <v>21695</v>
       </c>
@@ -8625,7 +8636,7 @@
       <c r="G291" s="8"/>
       <c r="J291" s="8"/>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10">
       <c r="A292" s="7">
         <v>21696</v>
       </c>
@@ -8647,7 +8658,7 @@
       <c r="G292" s="8"/>
       <c r="J292" s="8"/>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10">
       <c r="A293" s="7">
         <v>21697</v>
       </c>
@@ -8669,7 +8680,7 @@
       <c r="G293" s="8"/>
       <c r="J293" s="8"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10">
       <c r="A294" s="7">
         <v>21698</v>
       </c>
@@ -8691,7 +8702,7 @@
       <c r="G294" s="8"/>
       <c r="J294" s="8"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10">
       <c r="A295" s="7">
         <v>21699</v>
       </c>
@@ -8713,7 +8724,7 @@
       <c r="G295" s="8"/>
       <c r="J295" s="8"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10">
       <c r="A296" s="7">
         <v>21700</v>
       </c>
@@ -8735,7 +8746,7 @@
       <c r="G296" s="8"/>
       <c r="J296" s="8"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10">
       <c r="A297" s="7">
         <v>21701</v>
       </c>
@@ -8757,7 +8768,7 @@
       <c r="G297" s="8"/>
       <c r="J297" s="8"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10">
       <c r="A298" s="7">
         <v>22570</v>
       </c>
@@ -8779,7 +8790,7 @@
       <c r="G298" s="8"/>
       <c r="J298" s="8"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10">
       <c r="A299" s="7">
         <v>21683</v>
       </c>
@@ -8801,7 +8812,7 @@
       <c r="G299" s="8"/>
       <c r="J299" s="8"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10">
       <c r="A300" s="7">
         <v>21684</v>
       </c>
@@ -8823,7 +8834,7 @@
       <c r="G300" s="8"/>
       <c r="J300" s="8"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10">
       <c r="A301" s="7">
         <v>21685</v>
       </c>
@@ -8845,7 +8856,7 @@
       <c r="G301" s="8"/>
       <c r="J301" s="8"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10">
       <c r="A302" s="7">
         <v>21703</v>
       </c>
@@ -8867,7 +8878,7 @@
       <c r="G302" s="8"/>
       <c r="J302" s="8"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10">
       <c r="A303" s="7">
         <v>21704</v>
       </c>
@@ -8889,7 +8900,7 @@
       <c r="G303" s="8"/>
       <c r="J303" s="8"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10">
       <c r="A304" s="7">
         <v>22515</v>
       </c>
@@ -8911,7 +8922,7 @@
       <c r="G304" s="8"/>
       <c r="J304" s="8"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10">
       <c r="A305" s="7">
         <v>21044</v>
       </c>
@@ -8933,7 +8944,7 @@
       <c r="G305" s="8"/>
       <c r="J305" s="8"/>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10">
       <c r="A306" s="7">
         <v>19803</v>
       </c>
@@ -8955,7 +8966,7 @@
       <c r="G306" s="8"/>
       <c r="J306" s="8"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10">
       <c r="A307" s="7">
         <v>19804</v>
       </c>
@@ -8977,7 +8988,7 @@
       <c r="G307" s="8"/>
       <c r="J307" s="8"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10">
       <c r="A308" s="7">
         <v>19806</v>
       </c>
@@ -8999,7 +9010,7 @@
       <c r="G308" s="8"/>
       <c r="J308" s="8"/>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10">
       <c r="A309" s="7">
         <v>19807</v>
       </c>
@@ -9021,7 +9032,7 @@
       <c r="G309" s="8"/>
       <c r="J309" s="8"/>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10">
       <c r="A310" s="7">
         <v>21045</v>
       </c>
@@ -9043,7 +9054,7 @@
       <c r="G310" s="8"/>
       <c r="J310" s="8"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10">
       <c r="A311" s="7">
         <v>22951</v>
       </c>
@@ -9065,7 +9076,7 @@
       <c r="G311" s="8"/>
       <c r="J311" s="8"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10">
       <c r="A312" s="7">
         <v>18215</v>
       </c>
@@ -9087,7 +9098,7 @@
       <c r="G312" s="8"/>
       <c r="J312" s="8"/>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10">
       <c r="A313" s="7">
         <v>22949</v>
       </c>
@@ -9109,7 +9120,7 @@
       <c r="G313" s="8"/>
       <c r="J313" s="8"/>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10">
       <c r="A314" s="7">
         <v>15742</v>
       </c>
@@ -9131,7 +9142,7 @@
       <c r="G314" s="8"/>
       <c r="J314" s="8"/>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10">
       <c r="A315" s="7">
         <v>21716</v>
       </c>
@@ -9153,7 +9164,7 @@
       <c r="G315" s="8"/>
       <c r="J315" s="8"/>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10">
       <c r="A316" s="7">
         <v>19316</v>
       </c>
@@ -9175,7 +9186,7 @@
       <c r="G316" s="8"/>
       <c r="J316" s="8"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10">
       <c r="A317" s="7">
         <v>18202</v>
       </c>
@@ -9197,7 +9208,7 @@
       <c r="G317" s="8"/>
       <c r="J317" s="8"/>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10">
       <c r="A318" s="7">
         <v>15736</v>
       </c>
@@ -9219,7 +9230,7 @@
       <c r="G318" s="8"/>
       <c r="J318" s="8"/>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10">
       <c r="A319" s="7">
         <v>15740</v>
       </c>
@@ -9241,7 +9252,7 @@
       <c r="G319" s="8"/>
       <c r="J319" s="8"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10">
       <c r="A320" s="7">
         <v>16346</v>
       </c>
@@ -9263,7 +9274,7 @@
       <c r="G320" s="8"/>
       <c r="J320" s="8"/>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10">
       <c r="A321" s="7">
         <v>141</v>
       </c>
@@ -9285,7 +9296,7 @@
       <c r="G321" s="8"/>
       <c r="J321" s="8"/>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10">
       <c r="A322" s="7">
         <v>16273</v>
       </c>
@@ -9307,7 +9318,7 @@
       <c r="G322" s="8"/>
       <c r="J322" s="8"/>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10">
       <c r="A323" s="7">
         <v>22956</v>
       </c>
@@ -9329,7 +9340,7 @@
       <c r="G323" s="8"/>
       <c r="J323" s="8"/>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10">
       <c r="A324" s="7">
         <v>117</v>
       </c>
@@ -9351,7 +9362,7 @@
       <c r="G324" s="8"/>
       <c r="J324" s="8"/>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10">
       <c r="A325" s="7">
         <v>16275</v>
       </c>
@@ -9373,7 +9384,7 @@
       <c r="G325" s="8"/>
       <c r="J325" s="8"/>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10">
       <c r="A326" s="7">
         <v>10082</v>
       </c>
@@ -9395,7 +9406,7 @@
       <c r="G326" s="8"/>
       <c r="J326" s="8"/>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10">
       <c r="A327" s="7">
         <v>4175</v>
       </c>
@@ -9417,7 +9428,7 @@
       <c r="G327" s="8"/>
       <c r="J327" s="8"/>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10">
       <c r="A328" s="7">
         <v>4211</v>
       </c>
@@ -9439,7 +9450,7 @@
       <c r="G328" s="8"/>
       <c r="J328" s="8"/>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10">
       <c r="A329" s="7">
         <v>4212</v>
       </c>
@@ -9461,7 +9472,7 @@
       <c r="G329" s="8"/>
       <c r="J329" s="8"/>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10">
       <c r="A330" s="7">
         <v>4246</v>
       </c>
@@ -9483,7 +9494,7 @@
       <c r="G330" s="8"/>
       <c r="J330" s="8"/>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10">
       <c r="A331" s="7">
         <v>4275</v>
       </c>
@@ -9505,7 +9516,7 @@
       <c r="G331" s="8"/>
       <c r="J331" s="8"/>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10">
       <c r="A332" s="7">
         <v>4315</v>
       </c>
@@ -9527,7 +9538,7 @@
       <c r="G332" s="8"/>
       <c r="J332" s="8"/>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10">
       <c r="A333" s="7">
         <v>12077</v>
       </c>
@@ -9549,7 +9560,7 @@
       <c r="G333" s="8"/>
       <c r="J333" s="8"/>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10">
       <c r="A334" s="7">
         <v>16505</v>
       </c>
@@ -9571,7 +9582,7 @@
       <c r="G334" s="8"/>
       <c r="J334" s="8"/>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10">
       <c r="A335" s="7">
         <v>16506</v>
       </c>
@@ -9593,7 +9604,7 @@
       <c r="G335" s="8"/>
       <c r="J335" s="8"/>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10">
       <c r="A336" s="7">
         <v>23113</v>
       </c>
@@ -9615,7 +9626,7 @@
       <c r="G336" s="8"/>
       <c r="J336" s="8"/>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10">
       <c r="A337" s="7">
         <v>15796</v>
       </c>
@@ -9637,7 +9648,7 @@
       <c r="G337" s="8"/>
       <c r="J337" s="8"/>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10">
       <c r="A338" s="7">
         <v>23115</v>
       </c>
@@ -9659,12 +9670,12 @@
       <c r="G338" s="8"/>
       <c r="J338" s="8"/>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" ht="15">
       <c r="A339" s="7">
         <v>13674</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="C339" s="7">
         <v>10900</v>
@@ -9681,12 +9692,12 @@
       <c r="G339" s="8"/>
       <c r="J339" s="8"/>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10">
       <c r="A340" s="7">
         <v>23114</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C340" s="7">
         <v>10900</v>
@@ -9703,18 +9714,18 @@
       <c r="G340" s="8"/>
       <c r="J340" s="8"/>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10">
       <c r="A341" s="7">
         <v>11303</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C341" s="7">
         <v>11292</v>
       </c>
       <c r="D341" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E341" s="7">
         <v>4163</v>
@@ -9725,18 +9736,18 @@
       <c r="G341" s="8"/>
       <c r="J341" s="8"/>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10">
       <c r="A342" s="7">
         <v>11304</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C342" s="7">
         <v>11292</v>
       </c>
       <c r="D342" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E342" s="7">
         <v>4163</v>
@@ -9747,18 +9758,18 @@
       <c r="G342" s="8"/>
       <c r="J342" s="8"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10">
       <c r="A343" s="7">
         <v>18264</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C343" s="7">
         <v>15794</v>
       </c>
       <c r="D343" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E343" s="7">
         <v>4163</v>
@@ -9769,18 +9780,18 @@
       <c r="G343" s="8"/>
       <c r="J343" s="8"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10">
       <c r="A344" s="7">
         <v>18265</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C344" s="7">
         <v>15794</v>
       </c>
       <c r="D344" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E344" s="7">
         <v>4163</v>
@@ -9791,18 +9802,18 @@
       <c r="G344" s="8"/>
       <c r="J344" s="8"/>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" ht="15">
       <c r="A345" s="7">
         <v>18258</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C345" s="7">
-        <v>11291</v>
+        <v>23650</v>
       </c>
       <c r="D345" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E345" s="7">
         <v>4163</v>
@@ -9813,18 +9824,18 @@
       <c r="G345" s="8"/>
       <c r="J345" s="8"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" ht="15">
       <c r="A346" s="7">
         <v>11298</v>
       </c>
       <c r="B346" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C346" s="7">
+        <v>23650</v>
+      </c>
+      <c r="D346" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="C346" s="7">
-        <v>11291</v>
-      </c>
-      <c r="D346" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="E346" s="7">
         <v>4163</v>
@@ -9835,18 +9846,18 @@
       <c r="G346" s="8"/>
       <c r="J346" s="8"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" ht="15">
       <c r="A347" s="7">
         <v>11297</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="C347" s="7">
-        <v>11291</v>
+        <v>371</v>
+      </c>
+      <c r="C347" s="19">
+        <v>23561</v>
       </c>
       <c r="D347" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="E347" s="7">
         <v>4163</v>
@@ -9857,18 +9868,18 @@
       <c r="G347" s="8"/>
       <c r="J347" s="8"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10">
       <c r="A348" s="7">
         <v>18272</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C348" s="7">
         <v>12985</v>
       </c>
       <c r="D348" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E348" s="7">
         <v>4163</v>
@@ -9879,18 +9890,18 @@
       <c r="G348" s="8"/>
       <c r="J348" s="8"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10">
       <c r="A349" s="7">
-        <v>23151</v>
+        <v>18274</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C349" s="7">
         <v>12985</v>
       </c>
       <c r="D349" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E349" s="7">
         <v>4163</v>
@@ -9901,18 +9912,18 @@
       <c r="G349" s="8"/>
       <c r="J349" s="8"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10">
       <c r="A350" s="7">
-        <v>18274</v>
+        <v>18267</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C350" s="7">
-        <v>12985</v>
+        <v>4487</v>
       </c>
       <c r="D350" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E350" s="7">
         <v>4163</v>
@@ -9923,18 +9934,18 @@
       <c r="G350" s="8"/>
       <c r="J350" s="8"/>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10">
       <c r="A351" s="7">
-        <v>18267</v>
+        <v>20181</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C351" s="7">
         <v>4487</v>
       </c>
       <c r="D351" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E351" s="7">
         <v>4163</v>
@@ -9945,34 +9956,34 @@
       <c r="G351" s="8"/>
       <c r="J351" s="8"/>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A352" s="7">
-        <v>20181</v>
-      </c>
-      <c r="B352" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="C352" s="7">
-        <v>4487</v>
-      </c>
-      <c r="D352" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="E352" s="7">
-        <v>4163</v>
-      </c>
-      <c r="F352" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G352" s="8"/>
+    <row r="352" spans="1:10">
+      <c r="A352" s="5">
+        <v>23490</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C352" s="5">
+        <v>2558</v>
+      </c>
+      <c r="D352" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E352" s="5">
+        <v>23459</v>
+      </c>
+      <c r="F352" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="G352" s="6"/>
       <c r="J352" s="8"/>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10">
       <c r="A353" s="5">
-        <v>23490</v>
+        <v>23491</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>378</v>
+        <v>19</v>
       </c>
       <c r="C353" s="5">
         <v>2558</v>
@@ -9984,39 +9995,39 @@
         <v>23459</v>
       </c>
       <c r="F353" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G353" s="6"/>
       <c r="J353" s="8"/>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A354" s="5">
-        <v>23491</v>
-      </c>
-      <c r="B354" s="5" t="s">
+    <row r="354" spans="1:10">
+      <c r="A354" s="7">
+        <v>11473</v>
+      </c>
+      <c r="B354" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C354" s="5">
-        <v>2558</v>
-      </c>
-      <c r="D354" s="5" t="s">
+      <c r="C354" s="7">
+        <v>2228</v>
+      </c>
+      <c r="D354" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E354" s="5">
-        <v>23459</v>
-      </c>
-      <c r="F354" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="G354" s="6"/>
+      <c r="E354" s="7">
+        <v>2221</v>
+      </c>
+      <c r="F354" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G354" s="8"/>
       <c r="J354" s="8"/>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10">
       <c r="A355" s="7">
-        <v>11473</v>
+        <v>2256</v>
       </c>
       <c r="B355" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C355" s="7">
         <v>2228</v>
@@ -10028,17 +10039,17 @@
         <v>2221</v>
       </c>
       <c r="F355" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G355" s="8"/>
       <c r="J355" s="8"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10">
       <c r="A356" s="7">
-        <v>2256</v>
+        <v>2264</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="C356" s="7">
         <v>2228</v>
@@ -10050,17 +10061,17 @@
         <v>2221</v>
       </c>
       <c r="F356" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G356" s="8"/>
       <c r="J356" s="8"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10">
       <c r="A357" s="7">
-        <v>2264</v>
+        <v>2267</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C357" s="7">
         <v>2228</v>
@@ -10072,17 +10083,17 @@
         <v>2221</v>
       </c>
       <c r="F357" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G357" s="8"/>
       <c r="J357" s="8"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10">
       <c r="A358" s="7">
-        <v>2267</v>
+        <v>2271</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C358" s="7">
         <v>2228</v>
@@ -10094,17 +10105,17 @@
         <v>2221</v>
       </c>
       <c r="F358" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G358" s="8"/>
       <c r="J358" s="8"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10">
       <c r="A359" s="7">
-        <v>2271</v>
+        <v>2275</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C359" s="7">
         <v>2228</v>
@@ -10116,17 +10127,17 @@
         <v>2221</v>
       </c>
       <c r="F359" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G359" s="8"/>
       <c r="J359" s="8"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10">
       <c r="A360" s="7">
-        <v>2275</v>
+        <v>2281</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C360" s="7">
         <v>2228</v>
@@ -10138,17 +10149,17 @@
         <v>2221</v>
       </c>
       <c r="F360" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G360" s="8"/>
       <c r="J360" s="8"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10">
       <c r="A361" s="7">
-        <v>2281</v>
+        <v>15720</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C361" s="7">
         <v>2228</v>
@@ -10160,17 +10171,17 @@
         <v>2221</v>
       </c>
       <c r="F361" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G361" s="8"/>
       <c r="J361" s="8"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10">
       <c r="A362" s="7">
-        <v>15720</v>
+        <v>15721</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C362" s="7">
         <v>2228</v>
@@ -10182,17 +10193,17 @@
         <v>2221</v>
       </c>
       <c r="F362" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G362" s="8"/>
       <c r="J362" s="8"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10">
       <c r="A363" s="7">
-        <v>15721</v>
+        <v>22475</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C363" s="7">
         <v>2228</v>
@@ -10204,39 +10215,39 @@
         <v>2221</v>
       </c>
       <c r="F363" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G363" s="8"/>
       <c r="J363" s="8"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10">
       <c r="A364" s="7">
-        <v>22475</v>
+        <v>14301</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>88</v>
+        <v>382</v>
       </c>
       <c r="C364" s="7">
-        <v>2228</v>
+        <v>11475</v>
       </c>
       <c r="D364" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E364" s="7">
         <v>2221</v>
       </c>
       <c r="F364" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G364" s="8"/>
       <c r="J364" s="8"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10">
       <c r="A365" s="7">
-        <v>14301</v>
+        <v>14302</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>381</v>
+        <v>90</v>
       </c>
       <c r="C365" s="7">
         <v>11475</v>
@@ -10248,17 +10259,17 @@
         <v>2221</v>
       </c>
       <c r="F365" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G365" s="8"/>
       <c r="J365" s="8"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10">
       <c r="A366" s="7">
-        <v>14302</v>
+        <v>22471</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="C366" s="7">
         <v>11475</v>
@@ -10270,167 +10281,166 @@
         <v>2221</v>
       </c>
       <c r="F366" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G366" s="8"/>
       <c r="J366" s="8"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10">
       <c r="A367" s="7">
-        <v>22471</v>
+        <v>2286</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>16</v>
+        <v>383</v>
       </c>
       <c r="C367" s="7">
-        <v>11475</v>
+        <v>2284</v>
       </c>
       <c r="D367" s="7" t="s">
-        <v>13</v>
+        <v>384</v>
       </c>
       <c r="E367" s="7">
         <v>2221</v>
       </c>
       <c r="F367" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G367" s="8"/>
       <c r="J367" s="8"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10">
       <c r="A368" s="7">
-        <v>2286</v>
+        <v>22478</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C368" s="7">
         <v>2284</v>
       </c>
       <c r="D368" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E368" s="7">
         <v>2221</v>
       </c>
       <c r="F368" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G368" s="8"/>
       <c r="J368" s="8"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10">
       <c r="A369" s="7">
-        <v>22478</v>
+        <v>2333</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C369" s="7">
         <v>2284</v>
       </c>
       <c r="D369" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E369" s="7">
         <v>2221</v>
       </c>
       <c r="F369" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G369" s="8"/>
       <c r="J369" s="8"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10">
       <c r="A370" s="7">
-        <v>2333</v>
+        <v>16443</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C370" s="7">
-        <v>2284</v>
+        <v>2340</v>
       </c>
       <c r="D370" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="E370" s="7">
         <v>2221</v>
       </c>
       <c r="F370" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G370" s="8"/>
       <c r="J370" s="8"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10">
       <c r="A371" s="7">
-        <v>16443</v>
+        <v>16447</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C371" s="7">
-        <v>2340</v>
+        <v>2388</v>
       </c>
       <c r="D371" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E371" s="7">
         <v>2221</v>
       </c>
       <c r="F371" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G371" s="8"/>
-      <c r="J371" s="8"/>
-    </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10">
       <c r="A372" s="7">
-        <v>16447</v>
+        <v>22479</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C372" s="7">
-        <v>2388</v>
+        <v>21672</v>
       </c>
       <c r="D372" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E372" s="7">
         <v>2221</v>
       </c>
       <c r="F372" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A373" s="7">
-        <v>22479</v>
-      </c>
-      <c r="B373" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="C373" s="7">
-        <v>21672</v>
-      </c>
-      <c r="D373" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="E373" s="7">
-        <v>2221</v>
-      </c>
-      <c r="F373" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A374" s="5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10">
+      <c r="A373" s="5">
         <v>23533</v>
       </c>
+      <c r="B373" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C373" s="5">
+        <v>23515</v>
+      </c>
+      <c r="D373" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E373" s="5">
+        <v>23458</v>
+      </c>
+      <c r="F373" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="G373" s="5"/>
+    </row>
+    <row r="374" spans="1:10">
+      <c r="A374" s="9">
+        <v>23535</v>
+      </c>
       <c r="B374" s="5" t="s">
-        <v>378</v>
+        <v>19</v>
       </c>
       <c r="C374" s="5">
         <v>23515</v>
@@ -10442,16 +10452,16 @@
         <v>23458</v>
       </c>
       <c r="F374" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G374" s="5"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A375" s="9">
-        <v>23535</v>
+    <row r="375" spans="1:10">
+      <c r="A375" s="5">
+        <v>2362</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>19</v>
+        <v>394</v>
       </c>
       <c r="C375" s="5">
         <v>23515</v>
@@ -10463,16 +10473,16 @@
         <v>23458</v>
       </c>
       <c r="F375" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G375" s="5"/>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A376" s="5">
-        <v>2362</v>
+    <row r="376" spans="1:10">
+      <c r="A376" s="10">
+        <v>23541</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>393</v>
+        <v>81</v>
       </c>
       <c r="C376" s="5">
         <v>23515</v>
@@ -10484,16 +10494,16 @@
         <v>23458</v>
       </c>
       <c r="F376" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G376" s="5"/>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A377" s="10">
-        <v>23541</v>
+    <row r="377" spans="1:10">
+      <c r="A377" s="5">
+        <v>15759</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C377" s="5">
         <v>23515</v>
@@ -10505,16 +10515,16 @@
         <v>23458</v>
       </c>
       <c r="F377" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G377" s="5"/>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10">
       <c r="A378" s="5">
-        <v>15759</v>
+        <v>15760</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C378" s="5">
         <v>23515</v>
@@ -10526,16 +10536,16 @@
         <v>23458</v>
       </c>
       <c r="F378" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G378" s="5"/>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10">
       <c r="A379" s="5">
-        <v>15760</v>
+        <v>15761</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C379" s="5">
         <v>23515</v>
@@ -10547,16 +10557,16 @@
         <v>23458</v>
       </c>
       <c r="F379" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G379" s="5"/>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10">
       <c r="A380" s="5">
-        <v>15761</v>
+        <v>15762</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C380" s="5">
         <v>23515</v>
@@ -10568,16 +10578,16 @@
         <v>23458</v>
       </c>
       <c r="F380" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G380" s="5"/>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" ht="15">
       <c r="A381" s="5">
-        <v>15762</v>
+        <v>23542</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C381" s="5">
         <v>23515</v>
@@ -10589,16 +10599,16 @@
         <v>23458</v>
       </c>
       <c r="F381" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G381" s="5"/>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A382" s="10">
-        <v>23542</v>
+    <row r="382" spans="1:10" ht="15">
+      <c r="A382" s="5">
+        <v>23543</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C382" s="5">
         <v>23515</v>
@@ -10610,16 +10620,16 @@
         <v>23458</v>
       </c>
       <c r="F382" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G382" s="5"/>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A383" s="10">
-        <v>23543</v>
+    <row r="383" spans="1:10" ht="15">
+      <c r="A383" s="5">
+        <v>23544</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C383" s="5">
         <v>23515</v>
@@ -10631,96 +10641,68 @@
         <v>23458</v>
       </c>
       <c r="F383" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G383" s="5"/>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A384" s="10">
-        <v>23544</v>
+    <row r="384" spans="1:10">
+      <c r="A384" s="5">
+        <v>23539</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>88</v>
+        <v>395</v>
       </c>
       <c r="C384" s="5">
-        <v>23515</v>
+        <v>23537</v>
       </c>
       <c r="D384" s="5" t="s">
-        <v>20</v>
+        <v>396</v>
       </c>
       <c r="E384" s="5">
         <v>23458</v>
       </c>
       <c r="F384" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G384" s="5"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A385" s="5">
-        <v>23539</v>
-      </c>
-      <c r="B385" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="C385" s="5">
-        <v>23537</v>
-      </c>
-      <c r="D385" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="E385" s="5">
-        <v>23458</v>
-      </c>
-      <c r="F385" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="G385" s="5"/>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6">
+      <c r="A385" s="13">
+        <v>23521</v>
+      </c>
+      <c r="B385" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C385" s="14">
+        <v>23520</v>
+      </c>
+      <c r="D385" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="E385" s="14">
+        <v>19772</v>
+      </c>
+      <c r="F385" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" ht="15">
       <c r="A386" s="13">
-        <v>23521</v>
-      </c>
-      <c r="B386" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="C386" s="14">
-        <v>23520</v>
-      </c>
-      <c r="D386" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="E386" s="14">
-        <v>19772</v>
-      </c>
-      <c r="F386" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+        <v>99998</v>
+      </c>
+      <c r="B386" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" ht="15">
       <c r="A387" s="13">
-        <v>99998</v>
-      </c>
-      <c r="B387" s="19" t="s">
-        <v>398</v>
-      </c>
-      <c r="C387" s="19"/>
-      <c r="D387" s="19"/>
-      <c r="E387" s="19"/>
-      <c r="F387" s="19"/>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A388" s="13">
         <v>99999</v>
       </c>
-      <c r="B388" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="C388" s="19"/>
-      <c r="D388" s="19"/>
-      <c r="E388" s="19"/>
-      <c r="F388" s="19"/>
-    </row>
+      <c r="B387" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" ht="15"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="9" priority="1"/>
@@ -10734,6 +10716,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="13" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="975764f6ad4851f62dc57c3657271973">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" xmlns:ns3="6ce25027-e1b1-4004-8de8-eb0ea08907a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a09df0a8653da91c10cb7921c3578835" ns2:_="" ns3:_="">
     <xsd:import namespace="ae060729-66f1-4cea-a45e-be2331389c13"/>
@@ -10950,7 +10942,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -10959,56 +10951,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F2B3C1-39A5-4FE3-9C9C-B94A80384001}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
-    <ds:schemaRef ds:uri="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8611924D-9B5D-404D-B3D0-ED13D7C10B8C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71D6BC82-1639-4C6C-B4A8-514CED77D034}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F2B3C1-39A5-4FE3-9C9C-B94A80384001}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8611924D-9B5D-404D-B3D0-ED13D7C10B8C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71D6BC82-1639-4C6C-B4A8-514CED77D034}"/>
 </file>